--- a/Test Cases/TC_Module_Product.xlsx
+++ b/Test Cases/TC_Module_Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\hockyVII\kiem_thu_phan_mem\bai_tap\MANUAL-TESTING-GROUP-3\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A55FFB-788E-4233-916F-FA9D1DC9EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7BFE8-C057-49C4-A1D5-9915515EADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5129E81F-20A9-40BF-B258-852F2524A6DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>TC_PROD_001</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Từ khóa: Blue Top</t>
   </si>
   <si>
-    <t>Hệ thống tải lại trang, hiển thị tiêu đề "SEARCHED PRODUCTS" và danh sách đúng sản phẩm "Blue Top".</t>
-  </si>
-  <si>
     <t>Hiển thị chính xác sản phẩm có tên "Blue Top".</t>
   </si>
   <si>
@@ -180,21 +177,6 @@
   </si>
   <si>
     <t>Hệ thống không hiển thị sản phẩm nào, đúng như mong đợi.</t>
-  </si>
-  <si>
-    <t>[Bảo mật] Kiểm tra chèn mã HTML vào thanh Tìm kiếm</t>
-  </si>
-  <si>
-    <t>Từ khóa: &lt;h1&gt;Lỗi&lt;/h1&gt;</t>
-  </si>
-  <si>
-    <t>Hệ thống phải mã hóa (Encode) ký tự đặc biệt, không thực thi mã HTML trên giao diện.</t>
-  </si>
-  <si>
-    <t>Hệ thống THỰC THI mã HTML, in đậm chữ "Lỗi" to đùng trên màn hình (Lỗi XSS tiềm ẩn).</t>
-  </si>
-  <si>
-    <t>Security</t>
   </si>
   <si>
     <t>Lọc sản phẩm theo Danh mục (Category) cụ thể</t>
@@ -320,10 +302,6 @@
 2. Nhấn nút Tìm kiếm</t>
   </si>
   <si>
-    <t>1. Nhập mã thẻ HTML cơ bản vào ô Tìm kiếm
-2. Nhấn Tìm kiếm</t>
-  </si>
-  <si>
     <t>1. Tại cột trái (Category), bấm biểu tượng '+' ở mục 'Women'
 2. Chọn danh mục con 'Tops'</t>
   </si>
@@ -348,6 +326,23 @@
   <si>
     <t>1. Tại trang Chi tiết, tìm ô 'Quantity'
 2. Xóa số '1' mặc định và nhập số '5'</t>
+  </si>
+  <si>
+    <t>Hệ thống tải lại trang, danh sách hiển thị đúng sản phẩm "Blue Top".</t>
+  </si>
+  <si>
+    <t>[Cập nhật] Kiểm tra hiển thị từ khóa trên tiêu đề kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Vào trang Products
+2. Nhập từ khóa "Blue Top" vào ô Search
+3. Nhấn Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Tiêu đề danh sách phải hiển thị động chứa từ khóa. VD: "SEARCHED PRODUCTS FOR 'Blue Top'".</t>
+  </si>
+  <si>
+    <t>Hệ thống chỉ hiển thị tiêu đề tĩnh là "SEARCHED PRODUCTS", không rõ đang tìm từ khóa gì.</t>
   </si>
 </sst>
 </file>
@@ -532,44 +527,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -809,6 +766,44 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -823,20 +818,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0DEA1DC-562D-4363-96BA-CA3009A977D9}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0DEA1DC-562D-4363-96BA-CA3009A977D9}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K13" xr:uid="{D0DEA1DC-562D-4363-96BA-CA3009A977D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C8A98E49-F92B-4B78-8C33-1DAAD888BAB6}" name="Mã kịch bản (TC_ID)" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C4389E04-A033-4EE8-9DDF-9F6CF4C9FA7A}" name="Mã yêu cầu (Req_ID)" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{C0653F01-8A15-4286-ABE8-57BD5CAA3CB6}" name="Tiêu đề kịch bản (Title)" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{1472DADE-9C72-4ACE-AAF5-467356508FCA}" name="Các bước thực hiện (Steps to Reproduce)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{52F779F9-F380-46F3-8BB4-0D2EC0DBFCA9}" name="Dữ liệu kiểm thử (Test Data)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B7527BED-9CE4-4D96-9E44-03AC018008A8}" name="Kết quả mong đợi (Expected Result)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D1C1537F-5587-4442-B5AE-5EB9192A5ACE}" name="Kết quả thực tế (Actual Result trên Web)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7BB97D68-3A81-4B71-AB1D-689A49A2C647}" name="Độ ưu tiên (Priority)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3DC5EB19-0C7F-41B8-B502-BC23815676B6}" name="Loại kiểm thử (Type)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{35C614D5-EE62-4BA6-A82D-4BDAA5BD7C93}" name="Trạng thái (Status)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{4EBBECD3-E115-4F7E-9E6B-2EE9B05FD436}" name="Mã lỗi (Bug ID)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C8A98E49-F92B-4B78-8C33-1DAAD888BAB6}" name="Mã kịch bản (TC_ID)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C4389E04-A033-4EE8-9DDF-9F6CF4C9FA7A}" name="Mã yêu cầu (Req_ID)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C0653F01-8A15-4286-ABE8-57BD5CAA3CB6}" name="Tiêu đề kịch bản (Title)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1472DADE-9C72-4ACE-AAF5-467356508FCA}" name="Các bước thực hiện (Steps to Reproduce)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{52F779F9-F380-46F3-8BB4-0D2EC0DBFCA9}" name="Dữ liệu kiểm thử (Test Data)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B7527BED-9CE4-4D96-9E44-03AC018008A8}" name="Kết quả mong đợi (Expected Result)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D1C1537F-5587-4442-B5AE-5EB9192A5ACE}" name="Kết quả thực tế (Actual Result trên Web)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7BB97D68-3A81-4B71-AB1D-689A49A2C647}" name="Độ ưu tiên (Priority)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3DC5EB19-0C7F-41B8-B502-BC23815676B6}" name="Loại kiểm thử (Type)" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{35C614D5-EE62-4BA6-A82D-4BDAA5BD7C93}" name="Trạng thái (Status)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{4EBBECD3-E115-4F7E-9E6B-2EE9B05FD436}" name="Mã lỗi (Bug ID)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5BA2C1-2542-474E-8D07-9192620ABA19}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1215,7 +1210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,16 +1221,16 @@
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
@@ -1256,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>6</v>
@@ -1289,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -1314,7 +1309,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1322,25 +1317,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -1357,19 +1352,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>2</v>
@@ -1390,19 +1385,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>2</v>
@@ -1423,25 +1418,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>4</v>
@@ -1456,19 +1451,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>2</v>
@@ -1489,19 +1484,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>2</v>
@@ -1522,19 +1517,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>6</v>
@@ -1555,19 +1550,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>6</v>
@@ -1588,22 +1583,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>7</v>
